--- a/06d.xlsx
+++ b/06d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9E4A1-21DB-4CF1-811E-ECD96F851F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8291E9-C02A-4B3E-B03E-ECB9688CE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1418" windowWidth="28230" windowHeight="15097" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
+    <workbookView xWindow="5542" yWindow="4777" windowWidth="28231" windowHeight="15098" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
   </bookViews>
   <sheets>
     <sheet name="累積分布の値" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="累積分布の逆関数 (答え)" sheetId="7" r:id="rId4"/>
     <sheet name="偏差値" sheetId="8" r:id="rId5"/>
     <sheet name="偏差値 (答え)" sheetId="9" r:id="rId6"/>
-    <sheet name="正規分布の確率密度関数" sheetId="3" r:id="rId7"/>
-    <sheet name="正規分布の累積分布関数" sheetId="4" r:id="rId8"/>
+    <sheet name="正規分布の確率密度関数" sheetId="10" r:id="rId7"/>
+    <sheet name="正規分布の累積分布関数" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -477,269 +477,140 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>正規分布の確率密度関数!$A$4:$A$90</c:f>
+              <c:f>正規分布の確率密度関数!$A$4:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.5</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.5</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152.5</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>154</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154.5</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>155</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.5</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.5</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>158</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>158.5</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.5</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>160.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.5</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>162</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>162.5</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>163</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>163.5</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>164</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>164.5</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>165</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165.5</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>166</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>166.5</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>167</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>167.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>168</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>168.5</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>169.5</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>170</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>170.5</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>171</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>171.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>172.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>173.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>174.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>176.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>177.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>178.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>179.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>180.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>181.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>182.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>183.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>184.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>185.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>186.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>188.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>189.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>190.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>192.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
                   <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
@@ -747,269 +618,140 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>正規分布の確率密度関数!$B$4:$B$90</c:f>
+              <c:f>正規分布の確率密度関数!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.9994600272960722E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8280239062180786E-4</c:v>
+                  <c:v>4.8575099248972817E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.6880161185511199E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1891724640957424E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.797650972567483E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6558031050861425E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8345671301854281E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4108660977118259E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.46186175419298E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0056748309878837E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3246402106824623E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7051722567470663E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1452037739301242E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6375385574058292E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1692686348947299E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7217676668982569E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2713920516712509E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7909273178288449E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.251697469019409E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6261303285031386E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8904686259022357E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.027259311875998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.027259311875998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8904686259022357E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6261303285031386E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.251697469019409E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7909273178288449E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2713920516712509E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7217676668982569E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1692686348947299E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6375385574058292E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1452037739301242E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7051722567470663E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3246402106824623E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0056748309878837E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.46186175419298E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4108660977118259E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.8345671301854281E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6558031050861425E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.797650972567483E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1891724640957424E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6880161185511199E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>4.8575099248972817E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1285854331613306E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6880161185511199E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5890551948223665E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1891724640957424E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4662950311303033E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.797650972567483E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1912749693385135E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6558031050861425E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2003860110913244E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8345671301854281E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5681233207273695E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.4108660977118259E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.3724031890038174E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.46186175419298E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.6875765340625657E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0056748309878837E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1575080270464656E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3246402106824623E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5072293756477074E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7051722567470663E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9180709104551774E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.1452037739301242E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.3855028427097528E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6375385574058292E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.8995138566844093E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.1692686348947299E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.444295539869105E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7217676668982569E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9985782612686364E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.2713920516712509E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.5367073222893892E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.7909273178288449E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0304390905304301E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.251697469019409E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.4513114820094445E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.6261303285031386E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.7733258684616949E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.8904686259022357E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.9755944546199834E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.027259311875998E-2</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0445800060823139E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.027259311875998E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.9755944546199834E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.8904686259022357E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.7733258684616949E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.6261303285031386E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.4513114820094445E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.251697469019409E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0304390905304301E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.7909273178288449E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.5367073222893892E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.2713920516712509E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.9985782612686364E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.7217676668982569E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.444295539869105E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.1692686348947299E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.8995138566844093E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.6375385574058292E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.3855028427097528E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.1452037739301242E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.9180709104551774E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.7051722567470663E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.5072293756477074E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3246402106824623E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1575080270464656E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.0056748309878837E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.6875765340625657E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.46186175419298E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.3724031890038174E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.4108660977118259E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.5681233207273695E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.8345671301854281E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.2003860110913244E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.6558031050861425E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.1912749693385135E-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.797650972567483E-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.4662950311303033E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.1891724640957424E-3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.5890551948223665E-4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.6880161185511199E-4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.1285854331613306E-4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.8575099248972817E-4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.8280239062180786E-4</c:v>
-                </c:pt>
-                <c:pt idx="86">
                   <c:v>2.9994600272960722E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1018,7 +760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88BE-4500-9747-FF6024A7C697}"/>
+              <c16:uniqueId val="{00000000-980A-4E9C-B3CC-5AF6B172325C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1083,7 +825,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="10"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1308,269 +1050,140 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>正規分布の累積分布関数!$A$4:$A$90</c:f>
+              <c:f>正規分布の累積分布関数!$A$4:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.5</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.5</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152.5</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>154</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>154.5</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>155</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.5</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.5</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.5</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>158</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>158.5</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.5</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>160.5</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.5</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>162</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>162.5</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>163</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>163.5</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>164</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>164.5</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>165</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165.5</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>166</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>166.5</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>167</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>167.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>168</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>168.5</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>169.5</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>170</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>170.5</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>171</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>171.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>172.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>173.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>174.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>175.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>176.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>177.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>178.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>179.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>180.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>181.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>182.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>183.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>184.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>185.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>186.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>188.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>189.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>190.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>192.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
                   <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
@@ -1578,269 +1191,140 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>正規分布の累積分布関数!$B$4:$B$90</c:f>
+              <c:f>正規分布の累積分布関数!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>5.6184130042340804E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3176832239258912E-4</c:v>
+                  <c:v>9.4798925972189665E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4798925972189665E-4</c:v>
+                  <c:v>1.5656501113768605E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2215424135802525E-3</c:v>
+                  <c:v>2.5312456224991574E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5656501113768605E-3</c:v>
+                  <c:v>4.0065758816870576E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9960337285582514E-3</c:v>
+                  <c:v>6.2096653257761331E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5312456224991574E-3</c:v>
+                  <c:v>9.4249830494553717E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1930116413535219E-3</c:v>
+                  <c:v>1.401130524118932E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0065758816870576E-3</c:v>
+                  <c:v>2.0405033058306155E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0010372612480482E-3</c:v>
+                  <c:v>2.9116527403318888E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2096653257761331E-3</c:v>
+                  <c:v>4.0717118493768745E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6701806207409512E-3</c:v>
+                  <c:v>5.5815018177745042E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.4249830494553717E-3</c:v>
+                  <c:v>7.5019470263118032E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.152131004388092E-2</c:v>
+                  <c:v>9.889408025263996E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.401130524118932E-2</c:v>
+                  <c:v>0.12790220398830818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6951977840391499E-2</c:v>
+                  <c:v>0.16234925038176298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0405033058306155E-2</c:v>
+                  <c:v>0.20232838096364303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.443655524863422E-2</c:v>
+                  <c:v>0.24767696299521758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9116527403318888E-2</c:v>
+                  <c:v>0.29795092300728476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.45181739972076E-2</c:v>
+                  <c:v>0.35242269458120817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0717118493768745E-2</c:v>
+                  <c:v>0.4101058393642264</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7790352272814703E-2</c:v>
+                  <c:v>0.46980598436224646</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5815018177745042E-2</c:v>
+                  <c:v>0.53019401563775359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4867019147334434E-2</c:v>
+                  <c:v>0.5898941606357736</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5019470263118032E-2</c:v>
+                  <c:v>0.64757730541879188</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6341020709374147E-2</c:v>
+                  <c:v>0.70204907699271524</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.889408025263996E-2</c:v>
+                  <c:v>0.75232303700478242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11273299250225355</c:v>
+                  <c:v>0.79767161903635697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12790220398830818</c:v>
+                  <c:v>0.83765074961823704</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14443448356198257</c:v>
+                  <c:v>0.87209779601169179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16234925038176298</c:v>
+                  <c:v>0.9011059197473601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.18165107044344891</c:v>
+                  <c:v>0.92498052973688194</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20232838096364303</c:v>
+                  <c:v>0.94418498182225497</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2243524987568177</c:v>
+                  <c:v>0.95928288150623131</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24767696299521758</c:v>
+                  <c:v>0.97088347259668106</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.27223725448150549</c:v>
+                  <c:v>0.9795949669416939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.29795092300728476</c:v>
+                  <c:v>0.98598869475881068</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.32471814186337727</c:v>
+                  <c:v>0.99057501695054462</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.35242269458120817</c:v>
+                  <c:v>0.99379033467422384</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.38093338409412386</c:v>
+                  <c:v>0.99599342411831293</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.4101058393642264</c:v>
+                  <c:v>0.99746875437750082</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.43978467981733405</c:v>
+                  <c:v>0.99843434988862312</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.46980598436224646</c:v>
+                  <c:v>0.99905201074027805</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.53019401563775359</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.56021532018266595</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.5898941606357736</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.61906661590587619</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.64757730541879188</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.67528185813662267</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.70204907699271524</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.72776274551849451</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.75232303700478242</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.77564750124318227</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.79767161903635697</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.81834892955655114</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.83765074961823704</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.85556551643801737</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.87209779601169179</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.88726700749774645</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.9011059197473601</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.91365897929062589</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.92498052973688194</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.93513298085266561</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.94418498182225497</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.9522096477271853</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.95928288150623131</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.96548182600279242</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97088347259668106</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.9755634447513658</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.9795949669416939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.98304802215960851</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.98598869475881068</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.98847868995611909</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.99057501695054462</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.99232981937925901</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.99379033467422384</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.99499896273875199</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.99599342411831293</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.99680698835864645</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.99746875437750082</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.99800396627144172</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.99843434988862312</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.9987784575864197</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.99905201074027805</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.99926823167760737</c:v>
-                </c:pt>
-                <c:pt idx="86">
                   <c:v>0.99943815869957664</c:v>
                 </c:pt>
               </c:numCache>
@@ -1849,7 +1333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D30B-4F77-82A4-ED4C32D69E07}"/>
+              <c16:uniqueId val="{00000000-C1C3-4636-A119-68E3A34F7AB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1914,7 +1398,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="10"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3158,7 +2642,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AFCA55-B5AA-479D-BF58-A40C5CF02D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3FE526-6280-4951-A1C3-7BED5F42F3EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +2685,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA4C278-A7D6-447B-80CF-84CBA9948162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294F1A95-038E-4DBC-92C6-06AC724D4F0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877E9979-9B81-4567-8F13-DE110BC92F1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9348CFDA-B6F1-4F5A-AD59-42827815A789}">
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3912,701 +3396,528 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4" s="4" cm="1">
-        <f t="array" ref="A4:A90">_xlfn.SEQUENCE(87,1,150,0.5)</f>
+        <f t="array" ref="A4:A47">_xlfn.SEQUENCE(44,1,150,1)</f>
         <v>150</v>
       </c>
       <c r="B4" s="5" cm="1">
-        <f t="array" ref="B4:B90">_xlfn.NORM.DIST(A4:A90,171.5,6.6,FALSE)</f>
+        <f t="array" ref="B4:B47">_xlfn.NORM.DIST(A4:A47,171.5,6.6,FALSE)</f>
         <v>2.9994600272960722E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5" s="4">
-        <v>150.5</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5">
-        <v>3.8280239062180786E-4</v>
+        <v>4.8575099248972817E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A6" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5">
-        <v>4.8575099248972817E-4</v>
+        <v>7.6880161185511199E-4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A7" s="4">
-        <v>151.5</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5">
-        <v>6.1285854331613306E-4</v>
+        <v>1.1891724640957424E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A8" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5">
-        <v>7.6880161185511199E-4</v>
+        <v>1.797650972567483E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" s="4">
-        <v>152.5</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5">
-        <v>9.5890551948223665E-4</v>
+        <v>2.6558031050861425E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5">
-        <v>1.1891724640957424E-3</v>
+        <v>3.8345671301854281E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
-        <v>153.5</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5">
-        <v>1.4662950311303033E-3</v>
+        <v>5.4108660977118259E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B12" s="5">
-        <v>1.797650972567483E-3</v>
+        <v>7.46186175419298E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
-        <v>154.5</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5">
-        <v>2.1912749693385135E-3</v>
+        <v>1.0056748309878837E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B14" s="5">
-        <v>2.6558031050861425E-3</v>
+        <v>1.3246402106824623E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
-        <v>155.5</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5">
-        <v>3.2003860110913244E-3</v>
+        <v>1.7051722567470663E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B16" s="5">
-        <v>3.8345671301854281E-3</v>
+        <v>2.1452037739301242E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
-        <v>156.5</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5">
-        <v>4.5681233207273695E-3</v>
+        <v>2.6375385574058292E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B18" s="5">
-        <v>5.4108660977118259E-3</v>
+        <v>3.1692686348947299E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
-        <v>157.5</v>
+        <v>165</v>
       </c>
       <c r="B19" s="5">
-        <v>6.3724031890038174E-3</v>
+        <v>3.7217676668982569E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5">
-        <v>7.46186175419298E-3</v>
+        <v>4.2713920516712509E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
-        <v>158.5</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5">
-        <v>8.6875765340625657E-3</v>
+        <v>4.7909273178288449E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B22" s="5">
-        <v>1.0056748309878837E-2</v>
+        <v>5.251697469019409E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
-        <v>159.5</v>
+        <v>169</v>
       </c>
       <c r="B23" s="5">
-        <v>1.1575080270464656E-2</v>
+        <v>5.6261303285031386E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5">
-        <v>1.3246402106824623E-2</v>
+        <v>5.8904686259022357E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
-        <v>160.5</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5">
-        <v>1.5072293756477074E-2</v>
+        <v>6.027259311875998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A26" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5">
-        <v>1.7051722567470663E-2</v>
+        <v>6.027259311875998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
-        <v>161.5</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5">
-        <v>1.9180709104551774E-2</v>
+        <v>5.8904686259022357E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
-        <v>2.1452037739301242E-2</v>
+        <v>5.6261303285031386E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
-        <v>162.5</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5">
-        <v>2.3855028427097528E-2</v>
+        <v>5.251697469019409E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B30" s="5">
-        <v>2.6375385574058292E-2</v>
+        <v>4.7909273178288449E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
-        <v>163.5</v>
+        <v>177</v>
       </c>
       <c r="B31" s="5">
-        <v>2.8995138566844093E-2</v>
+        <v>4.2713920516712509E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B32" s="5">
-        <v>3.1692686348947299E-2</v>
+        <v>3.7217676668982569E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
-        <v>164.5</v>
+        <v>179</v>
       </c>
       <c r="B33" s="5">
-        <v>3.444295539869105E-2</v>
+        <v>3.1692686348947299E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B34" s="5">
-        <v>3.7217676668982569E-2</v>
+        <v>2.6375385574058292E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
-        <v>165.5</v>
+        <v>181</v>
       </c>
       <c r="B35" s="5">
-        <v>3.9985782612686364E-2</v>
+        <v>2.1452037739301242E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5">
-        <v>4.2713920516712509E-2</v>
+        <v>1.7051722567470663E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
-        <v>166.5</v>
+        <v>183</v>
       </c>
       <c r="B37" s="5">
-        <v>4.5367073222893892E-2</v>
+        <v>1.3246402106824623E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B38" s="5">
-        <v>4.7909273178288449E-2</v>
+        <v>1.0056748309878837E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
-        <v>167.5</v>
+        <v>185</v>
       </c>
       <c r="B39" s="5">
-        <v>5.0304390905304301E-2</v>
+        <v>7.46186175419298E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B40" s="5">
-        <v>5.251697469019409E-2</v>
+        <v>5.4108660977118259E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
-        <v>168.5</v>
+        <v>187</v>
       </c>
       <c r="B41" s="5">
-        <v>5.4513114820094445E-2</v>
+        <v>3.8345671301854281E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B42" s="5">
-        <v>5.6261303285031386E-2</v>
+        <v>2.6558031050861425E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A43" s="4">
-        <v>169.5</v>
+        <v>189</v>
       </c>
       <c r="B43" s="5">
-        <v>5.7733258684616949E-2</v>
+        <v>1.797650972567483E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A44" s="4">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B44" s="5">
-        <v>5.8904686259022357E-2</v>
+        <v>1.1891724640957424E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A45" s="4">
-        <v>170.5</v>
+        <v>191</v>
       </c>
       <c r="B45" s="5">
-        <v>5.9755944546199834E-2</v>
+        <v>7.6880161185511199E-4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B46" s="5">
-        <v>6.027259311875998E-2</v>
+        <v>4.8575099248972817E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A47" s="4">
-        <v>171.5</v>
+        <v>193</v>
       </c>
       <c r="B47" s="5">
-        <v>6.0445800060823139E-2</v>
+        <v>2.9994600272960722E-4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A48" s="4">
-        <v>172</v>
-      </c>
-      <c r="B48" s="5">
-        <v>6.027259311875998E-2</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A49" s="4">
-        <v>172.5</v>
-      </c>
-      <c r="B49" s="5">
-        <v>5.9755944546199834E-2</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A50" s="4">
-        <v>173</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5.8904686259022357E-2</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A51" s="4">
-        <v>173.5</v>
-      </c>
-      <c r="B51" s="5">
-        <v>5.7733258684616949E-2</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A52" s="4">
-        <v>174</v>
-      </c>
-      <c r="B52" s="5">
-        <v>5.6261303285031386E-2</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A53" s="4">
-        <v>174.5</v>
-      </c>
-      <c r="B53" s="5">
-        <v>5.4513114820094445E-2</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A54" s="4">
-        <v>175</v>
-      </c>
-      <c r="B54" s="5">
-        <v>5.251697469019409E-2</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A55" s="4">
-        <v>175.5</v>
-      </c>
-      <c r="B55" s="5">
-        <v>5.0304390905304301E-2</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A56" s="4">
-        <v>176</v>
-      </c>
-      <c r="B56" s="5">
-        <v>4.7909273178288449E-2</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A57" s="4">
-        <v>176.5</v>
-      </c>
-      <c r="B57" s="5">
-        <v>4.5367073222893892E-2</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A58" s="4">
-        <v>177</v>
-      </c>
-      <c r="B58" s="5">
-        <v>4.2713920516712509E-2</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A59" s="4">
-        <v>177.5</v>
-      </c>
-      <c r="B59" s="5">
-        <v>3.9985782612686364E-2</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A60" s="4">
-        <v>178</v>
-      </c>
-      <c r="B60" s="5">
-        <v>3.7217676668982569E-2</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A61" s="4">
-        <v>178.5</v>
-      </c>
-      <c r="B61" s="5">
-        <v>3.444295539869105E-2</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A62" s="4">
-        <v>179</v>
-      </c>
-      <c r="B62" s="5">
-        <v>3.1692686348947299E-2</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A63" s="4">
-        <v>179.5</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2.8995138566844093E-2</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A64" s="4">
-        <v>180</v>
-      </c>
-      <c r="B64" s="5">
-        <v>2.6375385574058292E-2</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A65" s="4">
-        <v>180.5</v>
-      </c>
-      <c r="B65" s="5">
-        <v>2.3855028427097528E-2</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A66" s="4">
-        <v>181</v>
-      </c>
-      <c r="B66" s="5">
-        <v>2.1452037739301242E-2</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A67" s="4">
-        <v>181.5</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1.9180709104551774E-2</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A68" s="4">
-        <v>182</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1.7051722567470663E-2</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A69" s="4">
-        <v>182.5</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1.5072293756477074E-2</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A70" s="4">
-        <v>183</v>
-      </c>
-      <c r="B70" s="5">
-        <v>1.3246402106824623E-2</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A71" s="4">
-        <v>183.5</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1.1575080270464656E-2</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A72" s="4">
-        <v>184</v>
-      </c>
-      <c r="B72" s="5">
-        <v>1.0056748309878837E-2</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A73" s="4">
-        <v>184.5</v>
-      </c>
-      <c r="B73" s="5">
-        <v>8.6875765340625657E-3</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A74" s="4">
-        <v>185</v>
-      </c>
-      <c r="B74" s="5">
-        <v>7.46186175419298E-3</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A75" s="4">
-        <v>185.5</v>
-      </c>
-      <c r="B75" s="5">
-        <v>6.3724031890038174E-3</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A76" s="4">
-        <v>186</v>
-      </c>
-      <c r="B76" s="5">
-        <v>5.4108660977118259E-3</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A77" s="4">
-        <v>186.5</v>
-      </c>
-      <c r="B77" s="5">
-        <v>4.5681233207273695E-3</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A78" s="4">
-        <v>187</v>
-      </c>
-      <c r="B78" s="5">
-        <v>3.8345671301854281E-3</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A79" s="4">
-        <v>187.5</v>
-      </c>
-      <c r="B79" s="5">
-        <v>3.2003860110913244E-3</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A80" s="4">
-        <v>188</v>
-      </c>
-      <c r="B80" s="5">
-        <v>2.6558031050861425E-3</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A81" s="4">
-        <v>188.5</v>
-      </c>
-      <c r="B81" s="5">
-        <v>2.1912749693385135E-3</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A82" s="4">
-        <v>189</v>
-      </c>
-      <c r="B82" s="5">
-        <v>1.797650972567483E-3</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A83" s="4">
-        <v>189.5</v>
-      </c>
-      <c r="B83" s="5">
-        <v>1.4662950311303033E-3</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A84" s="4">
-        <v>190</v>
-      </c>
-      <c r="B84" s="5">
-        <v>1.1891724640957424E-3</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A85">
-        <v>190.5</v>
-      </c>
-      <c r="B85" s="5">
-        <v>9.5890551948223665E-4</v>
-      </c>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A86" s="4">
-        <v>191</v>
-      </c>
-      <c r="B86" s="5">
-        <v>7.6880161185511199E-4</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A87" s="4">
-        <v>191.5</v>
-      </c>
-      <c r="B87" s="5">
-        <v>6.1285854331613306E-4</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A88" s="4">
-        <v>192</v>
-      </c>
-      <c r="B88" s="5">
-        <v>4.8575099248972817E-4</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A89" s="4">
-        <v>192.5</v>
-      </c>
-      <c r="B89" s="5">
-        <v>3.8280239062180786E-4</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A90" s="4">
-        <v>193</v>
-      </c>
-      <c r="B90" s="5">
-        <v>2.9994600272960722E-4</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4617,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CD3756-962F-4F4B-9923-3F651E753D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E65F06-A49E-401D-AA41-0C4FCE5158FA}">
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4645,701 +3956,528 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4" s="4" cm="1">
-        <f t="array" ref="A4:A90">_xlfn.SEQUENCE(87,1,150,0.5)</f>
+        <f t="array" ref="A4:A47">_xlfn.SEQUENCE(44,1,150,1)</f>
         <v>150</v>
       </c>
       <c r="B4" s="5" cm="1">
-        <f t="array" ref="B4:B90">_xlfn.NORM.DIST(A4:A90,171.5,6.6,TRUE)</f>
+        <f t="array" ref="B4:B47">_xlfn.NORM.DIST(A4:A47,171.5,6.6,TRUE)</f>
         <v>5.6184130042340804E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5" s="4">
-        <v>150.5</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5">
-        <v>7.3176832239258912E-4</v>
+        <v>9.4798925972189665E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A6" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5">
-        <v>9.4798925972189665E-4</v>
+        <v>1.5656501113768605E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A7" s="4">
-        <v>151.5</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5">
-        <v>1.2215424135802525E-3</v>
+        <v>2.5312456224991574E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A8" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5">
-        <v>1.5656501113768605E-3</v>
+        <v>4.0065758816870576E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" s="4">
-        <v>152.5</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5">
-        <v>1.9960337285582514E-3</v>
+        <v>6.2096653257761331E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5">
-        <v>2.5312456224991574E-3</v>
+        <v>9.4249830494553717E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
-        <v>153.5</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5">
-        <v>3.1930116413535219E-3</v>
+        <v>1.401130524118932E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B12" s="5">
-        <v>4.0065758816870576E-3</v>
+        <v>2.0405033058306155E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
-        <v>154.5</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5">
-        <v>5.0010372612480482E-3</v>
+        <v>2.9116527403318888E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B14" s="5">
-        <v>6.2096653257761331E-3</v>
+        <v>4.0717118493768745E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
-        <v>155.5</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5">
-        <v>7.6701806207409512E-3</v>
+        <v>5.5815018177745042E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B16" s="5">
-        <v>9.4249830494553717E-3</v>
+        <v>7.5019470263118032E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
-        <v>156.5</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5">
-        <v>1.152131004388092E-2</v>
+        <v>9.889408025263996E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B18" s="5">
-        <v>1.401130524118932E-2</v>
+        <v>0.12790220398830818</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
-        <v>157.5</v>
+        <v>165</v>
       </c>
       <c r="B19" s="5">
-        <v>1.6951977840391499E-2</v>
+        <v>0.16234925038176298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5">
-        <v>2.0405033058306155E-2</v>
+        <v>0.20232838096364303</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
-        <v>158.5</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5">
-        <v>2.443655524863422E-2</v>
+        <v>0.24767696299521758</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B22" s="5">
-        <v>2.9116527403318888E-2</v>
+        <v>0.29795092300728476</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
-        <v>159.5</v>
+        <v>169</v>
       </c>
       <c r="B23" s="5">
-        <v>3.45181739972076E-2</v>
+        <v>0.35242269458120817</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5">
-        <v>4.0717118493768745E-2</v>
+        <v>0.4101058393642264</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
-        <v>160.5</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5">
-        <v>4.7790352272814703E-2</v>
+        <v>0.46980598436224646</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A26" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5">
-        <v>5.5815018177745042E-2</v>
+        <v>0.53019401563775359</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
-        <v>161.5</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5">
-        <v>6.4867019147334434E-2</v>
+        <v>0.5898941606357736</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
-        <v>7.5019470263118032E-2</v>
+        <v>0.64757730541879188</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
-        <v>162.5</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5">
-        <v>8.6341020709374147E-2</v>
+        <v>0.70204907699271524</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B30" s="5">
-        <v>9.889408025263996E-2</v>
+        <v>0.75232303700478242</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
-        <v>163.5</v>
+        <v>177</v>
       </c>
       <c r="B31" s="5">
-        <v>0.11273299250225355</v>
+        <v>0.79767161903635697</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B32" s="5">
-        <v>0.12790220398830818</v>
+        <v>0.83765074961823704</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
-        <v>164.5</v>
+        <v>179</v>
       </c>
       <c r="B33" s="5">
-        <v>0.14443448356198257</v>
+        <v>0.87209779601169179</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B34" s="5">
-        <v>0.16234925038176298</v>
+        <v>0.9011059197473601</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
-        <v>165.5</v>
+        <v>181</v>
       </c>
       <c r="B35" s="5">
-        <v>0.18165107044344891</v>
+        <v>0.92498052973688194</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5">
-        <v>0.20232838096364303</v>
+        <v>0.94418498182225497</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
-        <v>166.5</v>
+        <v>183</v>
       </c>
       <c r="B37" s="5">
-        <v>0.2243524987568177</v>
+        <v>0.95928288150623131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B38" s="5">
-        <v>0.24767696299521758</v>
+        <v>0.97088347259668106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
-        <v>167.5</v>
+        <v>185</v>
       </c>
       <c r="B39" s="5">
-        <v>0.27223725448150549</v>
+        <v>0.9795949669416939</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B40" s="5">
-        <v>0.29795092300728476</v>
+        <v>0.98598869475881068</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
-        <v>168.5</v>
+        <v>187</v>
       </c>
       <c r="B41" s="5">
-        <v>0.32471814186337727</v>
+        <v>0.99057501695054462</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B42" s="5">
-        <v>0.35242269458120817</v>
+        <v>0.99379033467422384</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A43" s="4">
-        <v>169.5</v>
+        <v>189</v>
       </c>
       <c r="B43" s="5">
-        <v>0.38093338409412386</v>
+        <v>0.99599342411831293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A44" s="4">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B44" s="5">
-        <v>0.4101058393642264</v>
+        <v>0.99746875437750082</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A45" s="4">
-        <v>170.5</v>
+        <v>191</v>
       </c>
       <c r="B45" s="5">
-        <v>0.43978467981733405</v>
+        <v>0.99843434988862312</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B46" s="5">
-        <v>0.46980598436224646</v>
+        <v>0.99905201074027805</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A47" s="4">
-        <v>171.5</v>
+        <v>193</v>
       </c>
       <c r="B47" s="5">
-        <v>0.5</v>
+        <v>0.99943815869957664</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A48" s="4">
-        <v>172</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.53019401563775359</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A49" s="4">
-        <v>172.5</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.56021532018266595</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A50" s="4">
-        <v>173</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.5898941606357736</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A51" s="4">
-        <v>173.5</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.61906661590587619</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A52" s="4">
-        <v>174</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.64757730541879188</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A53" s="4">
-        <v>174.5</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.67528185813662267</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A54" s="4">
-        <v>175</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.70204907699271524</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A55" s="4">
-        <v>175.5</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.72776274551849451</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A56" s="4">
-        <v>176</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.75232303700478242</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A57" s="4">
-        <v>176.5</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.77564750124318227</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A58" s="4">
-        <v>177</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.79767161903635697</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A59" s="4">
-        <v>177.5</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.81834892955655114</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A60" s="4">
-        <v>178</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.83765074961823704</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A61" s="4">
-        <v>178.5</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.85556551643801737</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A62" s="4">
-        <v>179</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.87209779601169179</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A63" s="4">
-        <v>179.5</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.88726700749774645</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A64" s="4">
-        <v>180</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.9011059197473601</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A65" s="4">
-        <v>180.5</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.91365897929062589</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A66" s="4">
-        <v>181</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.92498052973688194</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A67" s="4">
-        <v>181.5</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.93513298085266561</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A68" s="4">
-        <v>182</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.94418498182225497</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A69" s="4">
-        <v>182.5</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.9522096477271853</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A70" s="4">
-        <v>183</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.95928288150623131</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A71" s="4">
-        <v>183.5</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.96548182600279242</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A72" s="4">
-        <v>184</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.97088347259668106</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A73" s="4">
-        <v>184.5</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.9755634447513658</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A74" s="4">
-        <v>185</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.9795949669416939</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A75" s="4">
-        <v>185.5</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.98304802215960851</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A76" s="4">
-        <v>186</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.98598869475881068</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A77" s="4">
-        <v>186.5</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.98847868995611909</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A78" s="4">
-        <v>187</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.99057501695054462</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A79" s="4">
-        <v>187.5</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.99232981937925901</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A80" s="4">
-        <v>188</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.99379033467422384</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A81" s="4">
-        <v>188.5</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.99499896273875199</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A82" s="4">
-        <v>189</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.99599342411831293</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A83" s="4">
-        <v>189.5</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.99680698835864645</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A84" s="4">
-        <v>190</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.99746875437750082</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A85">
-        <v>190.5</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0.99800396627144172</v>
-      </c>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A86" s="4">
-        <v>191</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0.99843434988862312</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A87" s="4">
-        <v>191.5</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0.9987784575864197</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A88" s="4">
-        <v>192</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0.99905201074027805</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A89" s="4">
-        <v>192.5</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0.99926823167760737</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A90" s="4">
-        <v>193</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0.99943815869957664</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
